--- a/mbs-perturbation/greedy/knn/greedy-knn-results.xlsx
+++ b/mbs-perturbation/greedy/knn/greedy-knn-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0576923076923077</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1090909090909091</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9033189033189033</v>
+        <v>0.8881673881673882</v>
       </c>
     </row>
     <row r="3">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.009216589861751152</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0182648401826484</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9924242424242424</v>
+        <v>0.9891774891774892</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6133817795108117</v>
+        <v>0.6747899159663865</v>
       </c>
       <c r="C7" t="n">
         <v>0.6333333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3588044831880449</v>
+        <v>0.4546546546546547</v>
       </c>
       <c r="E7" t="n">
-        <v>0.828932178932179</v>
+        <v>0.8252525252525252</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/greedy/knn/greedy-knn-results.xlsx
+++ b/mbs-perturbation/greedy/knn/greedy-knn-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08823529411764706</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1621621621621622</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8881673881673882</v>
+        <v>0.7750000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.6865384615384614</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4519230769230769</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C5" t="n">
         <v>0.5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7489177489177489</v>
+        <v>0.6586538461538461</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4444444444444445</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9891774891774892</v>
+        <v>0.3323317307692307</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6747899159663865</v>
+        <v>0.03725490196078431</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.15</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4546546546546547</v>
+        <v>0.05727272727272727</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8252525252525252</v>
+        <v>0.580889423076923</v>
       </c>
     </row>
   </sheetData>
